--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3751574.315844738</v>
+        <v>3756513.57869377</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,13 +667,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>154.9613742010227</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>66.98111554252792</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -712,7 +712,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -898,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>148.3681250208876</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>341.7625865374715</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.777037568467492</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>51.05608876581697</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>195.4755619138958</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>47.50320101340354</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>27.457978586098</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.4638972269085</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>96.84207451769305</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113151</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014448</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>106.8698659703784</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>133.7097938495612</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952497982</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014448</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>136.9550221642683</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836031</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583891</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
-        <v>203.843519215193</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.843519215193</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>115.526976800219</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583891</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985772</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.843519215193</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>237.6821551249385</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>51.2062577517943</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>204.1291651532051</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>204.1291651532051</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4188,10 +4188,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1336.435086552837</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C2" t="n">
-        <v>967.4725696124258</v>
+        <v>1878.345729894537</v>
       </c>
       <c r="D2" t="n">
-        <v>609.2068710056753</v>
+        <v>1520.080031287786</v>
       </c>
       <c r="E2" t="n">
-        <v>609.2068710056753</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>602.2613702564719</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4327,7 +4327,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>2113.174258592771</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1723.034926616959</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4473,22 +4473,22 @@
         <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799423</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
         <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>378.1446555862789</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1446555862789</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>378.1446555862789</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>2351.934357141989</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y5" t="n">
-        <v>764.7444956504007</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837985</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="F7" t="n">
-        <v>261.1630682837985</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G7" t="n">
         <v>257.3478788207</v>
@@ -4725,7 +4725,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>647.1402582258977</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>647.1402582258977</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>647.1402582258977</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>647.1402582258977</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>426.3476790823676</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>999.4901647174279</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>630.5276477770162</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>272.2619491702657</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>2318.103172347981</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1965.334517077867</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.09000478155</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y8" t="n">
-        <v>1386.09000478155</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4859,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>296.2710210862865</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>127.3348381583796</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940987</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117056</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>283.2093037137952</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521276</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2095034521276</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>477.9194859165262</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,40 +5026,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5223,25 +5223,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
         <v>97.21709146028584</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003438</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405194</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155863</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805443</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256433</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.777852827703</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341668</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653859</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>674.2349604684848</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>674.2349604684848</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119727</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333285</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.712528333285</v>
+        <v>1167.181495781369</v>
       </c>
       <c r="W16" t="n">
-        <v>809.2953582963244</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="X16" t="n">
-        <v>674.2349604684848</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y16" t="n">
-        <v>674.2349604684848</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,67 +5500,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571605</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636243</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307618</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526315</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>981.5095496229247</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>812.573366695018</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>674.2349604684844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903948</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>981.5095496229247</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>981.5095496229247</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555215</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473456</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011502</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952635</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>325.206642358303</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028581</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5977,25 +5977,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6013,13 +6013,13 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555215</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619856</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473456</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011502</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952635</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>325.206642358303</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,16 +6214,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6250,7 +6250,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555215</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.911007420103</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>213.911007420103</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>213.911007420103</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>213.911007420103</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609674</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550807</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181202</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>213.911007420103</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.911007420103</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6442,34 +6442,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6490,22 +6490,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555215</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6621,16 +6621,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,28 +6639,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473456</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011502</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952635</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>325.206642358303</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,28 +6685,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6730,22 +6730,22 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028583</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636247</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6861,19 +6861,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6885,22 +6885,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028583</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
         <v>97.21709146028583</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6937,22 +6937,22 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899126</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636247</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028583</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028583</v>
@@ -7098,19 +7098,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765184</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706316</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028583</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028583</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="38">
@@ -7156,52 +7156,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636247</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765184</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706316</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,46 +7399,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823808</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514103</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,7 +7651,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7836,7 +7836,7 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
         <v>869.3083006011506</v>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627881</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.70036832296</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445224</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776768</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445224</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814691</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298108</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.409182577676</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.409182577676</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298484</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.409182577676</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172076</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.409182577676</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>189.3952778808843</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>145.2677773534496</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>91.999861539476</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>11.66045085394398</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583891</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985772</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338423</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338423</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>29.89407122271217</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338423</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>48.8408432116525</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>116.0405633468335</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>82.39383318338588</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>82.39383318338594</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338589</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778547</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778547</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778546</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778546</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778547</v>
-      </c>
       <c r="E2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="F2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="G2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="H2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="I2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="K2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="L2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="M2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="N2" t="n">
         <v>703852.3075278756</v>
       </c>
-      <c r="G2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="H2" t="n">
-        <v>703852.3075278756</v>
-      </c>
-      <c r="I2" t="n">
-        <v>703852.3075278756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>703852.3075278755</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703852.3075278756</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703852.3075278762</v>
-      </c>
-      <c r="M2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="N2" t="n">
-        <v>703852.3075278759</v>
-      </c>
       <c r="O2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="P2" t="n">
         <v>703852.307527876</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8.126322092888502e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.352540372565272e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26426,37 +26426,37 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7916.731656007481</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="K4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007604</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007518</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007516</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007517</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007516</v>
-      </c>
       <c r="L4" t="n">
-        <v>7916.731656007524</v>
+        <v>7916.731656007533</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007538</v>
+        <v>7916.731656007539</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.73165600749</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007489</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007484</v>
@@ -26472,25 +26472,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340947</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340947</v>
-      </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26505,10 +26505,10 @@
         <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81806.41311602018</v>
+        <v>-81806.41311602</v>
       </c>
       <c r="C6" t="n">
+        <v>508161.4660985245</v>
+      </c>
+      <c r="D6" t="n">
         <v>508161.4660985243</v>
       </c>
-      <c r="D6" t="n">
-        <v>508161.4660985245</v>
-      </c>
       <c r="E6" t="n">
-        <v>77813.62218653409</v>
+        <v>78690.75432028335</v>
       </c>
       <c r="F6" t="n">
-        <v>602973.6586634303</v>
+        <v>603850.7907971799</v>
       </c>
       <c r="G6" t="n">
-        <v>602973.6586634299</v>
+        <v>603850.7907971799</v>
       </c>
       <c r="H6" t="n">
-        <v>602973.6586634294</v>
+        <v>603850.7907971799</v>
       </c>
       <c r="I6" t="n">
-        <v>602973.6586634298</v>
+        <v>603850.7907971797</v>
       </c>
       <c r="J6" t="n">
-        <v>426550.4394708368</v>
+        <v>427427.5716045864</v>
       </c>
       <c r="K6" t="n">
-        <v>602973.6586634299</v>
+        <v>603850.7907971798</v>
       </c>
       <c r="L6" t="n">
-        <v>602973.6586634307</v>
+        <v>603850.7907971798</v>
       </c>
       <c r="M6" t="n">
-        <v>468172.6434295928</v>
+        <v>469049.7755633426</v>
       </c>
       <c r="N6" t="n">
-        <v>602973.6586634301</v>
+        <v>603850.7907971794</v>
       </c>
       <c r="O6" t="n">
-        <v>602973.6586634303</v>
+        <v>603850.7907971799</v>
       </c>
       <c r="P6" t="n">
-        <v>602973.6586634301</v>
+        <v>603850.7907971798</v>
       </c>
     </row>
   </sheetData>
@@ -26700,19 +26700,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26746,13 +26746,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054540997</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054540997</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26767,16 +26767,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>226.9689958712391</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>346.8030544782671</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>233.5622450513742</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>7.478382179941548</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>163.5327646905834</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>235.2257854761608</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>186.454808158366</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>6.975201561408156</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>121.1574944321144</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>120.5017245654297</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.614797267597169e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.842170943040401e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.015790261611063e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29802,10 +29802,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>8.704148513061227e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29985,22 +29985,22 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>1.193711796076968e-12</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961202</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041485</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304437</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565515</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540882</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946989</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104644</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.4953007812706</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358982</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724843</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855523</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361485</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337665</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336899</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892241</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351809</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961202</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041485</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304437</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565515</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540882</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946989</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104644</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.4953007812706</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358982</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724843</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855523</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361485</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337665</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336899</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892241</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351809</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33414,46 +33414,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,43 +33493,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,43 +33575,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,43 +33730,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,43 +33812,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,43 +33967,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,46 +34125,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,43 +34204,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,43 +34286,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307146</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303327</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109069</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951468</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349796</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490657</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.257704956024</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.124745373426</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415661</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507396</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187468</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303327</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109069</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951468</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349796</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953154</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.257704956024</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.424377050466</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980126</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092013</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209231</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36220,7 +36220,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556563</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187486</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36457,7 +36457,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556563</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187486</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36694,7 +36694,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556563</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187486</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36931,7 +36931,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556563</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187486</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005177</v>
+        <v>384.9870895382562</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.37802194151</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209231</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
